--- a/Caracteristicas/DM/CorrelacióncaracteristicasNO.xlsx
+++ b/Caracteristicas/DM/CorrelacióncaracteristicasNO.xlsx
@@ -351,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +373,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -421,6 +427,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="CF91" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2290,314 +2300,314 @@
         <v>1.2903132952687E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>7.9570696849935261E-3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>0.28714403160924268</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="9">
         <v>-0.28856253427145251</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>-0.30152449646657942</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="9">
         <v>-0.44867604001421219</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="9">
         <v>0.288943186512787</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
         <v>-0.297284196966354</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="9">
         <v>8.5452421082233054E-2</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="9">
         <v>0.75948324604648587</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="9">
         <v>-0.79456575387021511</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="9">
         <v>-0.89630597579600391</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="9">
         <v>-0.18491297290240891</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="9">
         <v>0.98354318875448365</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="9">
         <v>-0.65772209414833904</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="9">
         <v>0.19337452650771381</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="9">
         <v>0.58308312583147148</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="9">
         <v>-0.40659026326548042</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="9">
         <v>-0.85430516968748438</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="9">
         <v>-0.50282708699684964</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="9">
         <v>1</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="9">
         <v>-0.30823429768340699</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="9">
         <v>0.72504844954617609</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="9">
         <v>0.29054543362448781</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="9">
         <v>0.53103602940000538</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="9">
         <v>0.42830273182441903</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="9">
         <v>0.42428285048951092</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="9">
         <v>0.49983637907397421</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="9">
         <v>0.29054543362448781</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="9">
         <v>0.26700085894468623</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="9">
         <v>0.27588230597046798</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="9">
         <v>0.28252590971981451</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="9">
         <v>0.36177138475575582</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="9">
         <v>2.6796850871537631E-2</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="9">
         <v>-0.14733924398347059</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="9">
         <v>1.7487207131646969E-2</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="9">
         <v>-5.946752109398188E-3</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="9">
         <v>0.36177138475575582</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" s="9">
         <v>0.28574476544868088</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="9">
         <v>0.53620737129825247</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" s="9">
         <v>0.47750630971093161</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" s="9">
         <v>0.50370301160328923</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" s="9">
         <v>0.28574476544868088</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="9">
         <v>0.56358781041779449</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="9">
         <v>0.46526397095442462</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="9">
         <v>0.75371864192915439</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" s="9">
         <v>0.80088365988890353</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" s="9">
         <v>0.85097000243630194</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" s="9">
         <v>0.46526397095442462</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" s="9">
         <v>0.61063222083848834</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" s="9">
         <v>-0.32164292078269152</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" s="9">
         <v>0.49529787815682558</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" s="9">
         <v>0.70837481282066417</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" s="9">
         <v>0.73605377504128577</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" s="9">
         <v>0.33039958504759931</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" s="9">
         <v>0.26720676069113258</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" s="9">
         <v>0.29069971096247782</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" s="9">
         <v>0.299293677973059</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" s="9">
         <v>0.59649846652534722</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" s="9">
         <v>0.41261712278868018</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" s="9">
         <v>0.58341753767397764</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" s="9">
         <v>0.50165157258985338</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" s="9">
         <v>0.35306911732862473</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" s="9">
         <v>0.43096179860547118</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" s="9">
         <v>0.45709757928462652</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" s="9">
         <v>-8.8986348487977915E-2</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" s="9">
         <v>-4.3882583758917897E-2</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" s="9">
         <v>-4.3882583758917897E-2</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" s="9">
         <v>-0.27380930668858527</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" s="9">
         <v>-5.8913543756568647E-2</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" s="9">
         <v>-0.1123052323907586</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" s="9">
         <v>-0.25974323551366441</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" s="9">
         <v>-0.30103347201991321</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" s="9">
         <v>-0.15931364811016319</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" s="9">
         <v>0.32067843185484529</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" s="9">
         <v>-0.56881989851144976</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" s="9">
         <v>-4.3877468561698357E-2</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" s="9">
         <v>-4.3877468561698357E-2</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" s="9">
         <v>0.33478652899795069</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" s="9">
         <v>-0.43685614624570651</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" s="9">
         <v>-0.38569756064570332</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" s="9">
         <v>-0.77418272151615952</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" s="9">
         <v>-0.74032043458788988</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" s="9">
         <v>-0.62460520777267914</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" s="9">
         <v>0.80525087446702404</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" s="9">
         <v>0.73709667992099426</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" s="9">
         <v>0.22554944157063919</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" s="9">
         <v>0.19236764547543589</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" s="9">
         <v>-0.24479285711433521</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" s="9">
         <v>-0.29377156395261511</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" s="9">
         <v>7.5846444524135123E-2</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" s="9">
         <v>0.2104822665974608</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" s="9">
         <v>7.0815215156118548E-3</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" s="9">
         <v>7.3347491050510569E-2</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" s="9">
         <v>0.62316554453512385</v>
       </c>
-      <c r="CR6">
+      <c r="CR6" s="9">
         <v>-0.52870088701044327</v>
       </c>
-      <c r="CS6">
+      <c r="CS6" s="9">
         <v>-0.103485491833604</v>
       </c>
-      <c r="CT6">
+      <c r="CT6" s="9">
         <v>0.21736250887486139</v>
       </c>
-      <c r="CU6">
+      <c r="CU6" s="9">
         <v>0.66856355537683243</v>
       </c>
-      <c r="CV6" s="3">
+      <c r="CV6" s="9">
         <v>-0.80886035016812063</v>
       </c>
-      <c r="CW6">
+      <c r="CW6" s="9">
         <v>1.833100284554233E-4</v>
       </c>
-      <c r="CX6">
+      <c r="CX6" s="9">
         <v>0.39818825431741173</v>
       </c>
-      <c r="CY6">
+      <c r="CY6" s="9">
         <v>3.9711126010724771E-3</v>
       </c>
     </row>
@@ -32146,314 +32156,314 @@
         <v>0.18523079869328479</v>
       </c>
     </row>
-    <row r="102" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:103" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="9">
         <v>0.2005516384439594</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="9">
         <v>-0.23780732580885139</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="9">
         <v>0.27308876428405449</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="9">
         <v>0.29561311863559953</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="9">
         <v>0.36109702721827441</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="9">
         <v>-0.25026201566123668</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="9">
         <v>0.28982205369375003</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="9">
         <v>-0.14665522120479799</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="9">
         <v>-0.53475085986816173</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="9">
         <v>0.93880545730246445</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="9">
         <v>1</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="9">
         <v>0.13117517136335119</v>
       </c>
-      <c r="N102">
+      <c r="N102" s="9">
         <v>-0.90855362276685203</v>
       </c>
-      <c r="O102">
+      <c r="O102" s="9">
         <v>0.81553793887422288</v>
       </c>
-      <c r="P102">
+      <c r="P102" s="9">
         <v>-0.16678417412467661</v>
       </c>
-      <c r="Q102">
+      <c r="Q102" s="9">
         <v>-0.39695694390145592</v>
       </c>
-      <c r="R102">
+      <c r="R102" s="9">
         <v>0.54762647982995194</v>
       </c>
-      <c r="S102">
+      <c r="S102" s="9">
         <v>0.94655004521651209</v>
       </c>
-      <c r="T102">
+      <c r="T102" s="9">
         <v>0.39258786303138038</v>
       </c>
-      <c r="U102">
+      <c r="U102" s="9">
         <v>-0.89630597579600391</v>
       </c>
-      <c r="V102">
+      <c r="V102" s="9">
         <v>0.43224497192290712</v>
       </c>
-      <c r="W102" s="3">
+      <c r="W102" s="9">
         <v>-0.64961330972243259</v>
       </c>
-      <c r="X102">
+      <c r="X102" s="9">
         <v>-0.39506504373181989</v>
       </c>
-      <c r="Y102">
+      <c r="Y102" s="9">
         <v>-0.49873716156157999</v>
       </c>
-      <c r="Z102">
+      <c r="Z102" s="9">
         <v>-0.31752720551130759</v>
       </c>
-      <c r="AA102">
+      <c r="AA102" s="9">
         <v>-0.3542115887241773</v>
       </c>
-      <c r="AB102">
+      <c r="AB102" s="9">
         <v>-0.42917086561843348</v>
       </c>
-      <c r="AC102">
+      <c r="AC102" s="9">
         <v>-0.39506504373181989</v>
       </c>
-      <c r="AD102">
+      <c r="AD102" s="9">
         <v>-0.37784569152479047</v>
       </c>
-      <c r="AE102">
+      <c r="AE102" s="9">
         <v>-0.39166902624064298</v>
       </c>
-      <c r="AF102">
+      <c r="AF102" s="9">
         <v>-0.39177001741628958</v>
       </c>
-      <c r="AG102">
+      <c r="AG102" s="9">
         <v>-0.4739343592376884</v>
       </c>
-      <c r="AH102">
+      <c r="AH102" s="9">
         <v>1.290316997537905E-3</v>
       </c>
-      <c r="AI102">
+      <c r="AI102" s="9">
         <v>0.12613453120662441</v>
       </c>
-      <c r="AJ102">
+      <c r="AJ102" s="9">
         <v>2.0276219721255009E-2</v>
       </c>
-      <c r="AK102">
+      <c r="AK102" s="9">
         <v>3.2354414170319867E-2</v>
       </c>
-      <c r="AL102">
+      <c r="AL102" s="9">
         <v>-0.4739343592376884</v>
       </c>
-      <c r="AM102">
+      <c r="AM102" s="9">
         <v>-0.21770297469186711</v>
       </c>
-      <c r="AN102">
+      <c r="AN102" s="9">
         <v>-0.43775490274965467</v>
       </c>
-      <c r="AO102">
+      <c r="AO102" s="9">
         <v>-0.28822051761593609</v>
       </c>
-      <c r="AP102">
+      <c r="AP102" s="9">
         <v>-0.34936678396826421</v>
       </c>
-      <c r="AQ102">
+      <c r="AQ102" s="9">
         <v>-0.21770297469186711</v>
       </c>
-      <c r="AR102">
+      <c r="AR102" s="9">
         <v>-0.40614016239066991</v>
       </c>
-      <c r="AS102">
+      <c r="AS102" s="9">
         <v>-0.59989947834869828</v>
       </c>
-      <c r="AT102">
+      <c r="AT102" s="9">
         <v>-0.86900958796405015</v>
       </c>
-      <c r="AU102">
+      <c r="AU102" s="9">
         <v>-0.89628143310435981</v>
       </c>
-      <c r="AV102">
+      <c r="AV102" s="9">
         <v>-0.91756801227671825</v>
       </c>
-      <c r="AW102">
+      <c r="AW102" s="9">
         <v>-0.59989947834869828</v>
       </c>
-      <c r="AX102">
+      <c r="AX102" s="9">
         <v>-0.74624804991334082</v>
       </c>
-      <c r="AY102">
+      <c r="AY102" s="9">
         <v>0.1543611408889389</v>
       </c>
-      <c r="AZ102">
+      <c r="AZ102" s="9">
         <v>-0.50486537537053977</v>
       </c>
-      <c r="BA102">
+      <c r="BA102" s="9">
         <v>-0.67693901654407451</v>
       </c>
-      <c r="BB102">
+      <c r="BB102" s="9">
         <v>-0.69769704846857528</v>
       </c>
-      <c r="BC102">
+      <c r="BC102" s="9">
         <v>-0.44335549078260428</v>
       </c>
-      <c r="BD102">
+      <c r="BD102" s="9">
         <v>-0.36089611149609069</v>
       </c>
-      <c r="BE102">
+      <c r="BE102" s="9">
         <v>-0.39533693965089012</v>
       </c>
-      <c r="BF102">
+      <c r="BF102" s="9">
         <v>-0.37605631195299671</v>
       </c>
-      <c r="BG102">
+      <c r="BG102" s="9">
         <v>-0.43738216722966777</v>
       </c>
-      <c r="BH102">
+      <c r="BH102" s="9">
         <v>-0.53091680007780551</v>
       </c>
-      <c r="BI102">
+      <c r="BI102" s="9">
         <v>-0.64801710083736797</v>
       </c>
-      <c r="BJ102">
+      <c r="BJ102" s="9">
         <v>-0.56063404179840814</v>
       </c>
-      <c r="BK102">
+      <c r="BK102" s="9">
         <v>-0.46019311500377058</v>
       </c>
-      <c r="BL102">
+      <c r="BL102" s="9">
         <v>-0.52566611565601618</v>
       </c>
-      <c r="BM102">
+      <c r="BM102" s="9">
         <v>-0.40960724879831328</v>
       </c>
-      <c r="BN102">
+      <c r="BN102" s="9">
         <v>3.5547691162727463E-2</v>
       </c>
-      <c r="BO102">
+      <c r="BO102" s="9">
         <v>1.6109006235693879E-3</v>
       </c>
-      <c r="BP102">
+      <c r="BP102" s="9">
         <v>1.6109006235693879E-3</v>
       </c>
-      <c r="BQ102">
+      <c r="BQ102" s="9">
         <v>0.2008091488131733</v>
       </c>
-      <c r="BR102">
+      <c r="BR102" s="9">
         <v>1.2223144691227339E-2</v>
       </c>
-      <c r="BS102">
+      <c r="BS102" s="9">
         <v>7.6572245734690764E-2</v>
       </c>
-      <c r="BT102">
+      <c r="BT102" s="9">
         <v>0.21628408107885311</v>
       </c>
-      <c r="BU102">
+      <c r="BU102" s="9">
         <v>0.25147803150876502</v>
       </c>
-      <c r="BV102">
+      <c r="BV102" s="9">
         <v>0.14606022067720351</v>
       </c>
-      <c r="BW102">
+      <c r="BW102" s="9">
         <v>-0.45773697900718108</v>
       </c>
-      <c r="BX102">
+      <c r="BX102" s="9">
         <v>0.66870746206327381</v>
       </c>
-      <c r="BY102">
+      <c r="BY102" s="9">
         <v>1.607936514271089E-3</v>
       </c>
-      <c r="BZ102">
+      <c r="BZ102" s="9">
         <v>1.607936514271089E-3</v>
       </c>
-      <c r="CA102">
+      <c r="CA102" s="9">
         <v>-0.25857740978681898</v>
       </c>
-      <c r="CB102">
+      <c r="CB102" s="9">
         <v>0.47730879519641017</v>
       </c>
-      <c r="CC102">
+      <c r="CC102" s="9">
         <v>0.44719835741447161</v>
       </c>
-      <c r="CD102">
+      <c r="CD102" s="9">
         <v>0.93439532195345443</v>
       </c>
-      <c r="CE102">
+      <c r="CE102" s="9">
         <v>0.90732036834890151</v>
       </c>
-      <c r="CF102">
+      <c r="CF102" s="9">
         <v>0.68361038611280256</v>
       </c>
-      <c r="CG102">
+      <c r="CG102" s="9">
         <v>-0.79141617402831865</v>
       </c>
-      <c r="CH102">
+      <c r="CH102" s="9">
         <v>-0.79150821231382862</v>
       </c>
-      <c r="CI102">
+      <c r="CI102" s="9">
         <v>-0.19976625697211389</v>
       </c>
-      <c r="CJ102">
+      <c r="CJ102" s="9">
         <v>-0.14627115011649949</v>
       </c>
-      <c r="CK102">
+      <c r="CK102" s="9">
         <v>9.876390040197075E-2</v>
       </c>
-      <c r="CL102">
+      <c r="CL102" s="9">
         <v>0.1023673711393237</v>
       </c>
-      <c r="CM102">
+      <c r="CM102" s="9">
         <v>1.9164432318922349E-2</v>
       </c>
-      <c r="CN102">
+      <c r="CN102" s="9">
         <v>-0.27941797376668959</v>
       </c>
-      <c r="CO102">
+      <c r="CO102" s="9">
         <v>-3.0457103985656851E-2</v>
       </c>
-      <c r="CP102">
+      <c r="CP102" s="9">
         <v>-0.2267009126837905</v>
       </c>
-      <c r="CQ102">
+      <c r="CQ102" s="9">
         <v>-0.45638907308820448</v>
       </c>
-      <c r="CR102">
+      <c r="CR102" s="9">
         <v>0.70527888767583991</v>
       </c>
-      <c r="CS102">
+      <c r="CS102" s="9">
         <v>2.7237084995398581E-2</v>
       </c>
-      <c r="CT102">
+      <c r="CT102" s="9">
         <v>-0.2667846437542174</v>
       </c>
-      <c r="CU102">
+      <c r="CU102" s="9">
         <v>-0.4844115304675693</v>
       </c>
-      <c r="CV102" s="3">
+      <c r="CV102" s="9">
         <v>0.88693626925331737</v>
       </c>
-      <c r="CW102">
+      <c r="CW102" s="9">
         <v>7.6097472498509013E-3</v>
       </c>
-      <c r="CX102">
+      <c r="CX102" s="9">
         <v>-0.52205071467241659</v>
       </c>
-      <c r="CY102">
+      <c r="CY102" s="9">
         <v>9.2404231164375447E-3</v>
       </c>
     </row>
